--- a/variables_thesaurus.xlsx
+++ b/variables_thesaurus.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P235"/>
+  <dimension ref="A1:P224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1054,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>admin_delegation</t>
+          <t>admin_region</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1122,7 +1122,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>admin_region</t>
+          <t>admin_vegueria</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1190,7 +1190,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>admin_vegueria</t>
+          <t>admin_municipality</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>admin_municipality</t>
+          <t>admin_province_id</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1326,7 +1326,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>admin_province_id</t>
+          <t>admin_region_id</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1394,7 +1394,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>admin_region_id</t>
+          <t>admin_municipality_id</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1462,7 +1462,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>admin_municipality_id</t>
+          <t>admin_natural_interest_area</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1530,7 +1530,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>admin_natural_interest_area</t>
+          <t>admin_special_protection_natural_area</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1598,7 +1598,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>admin_special_protection_natural_area</t>
+          <t>admin_natura_network_2000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1666,17 +1666,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>admin_natura_network_2000</t>
+          <t>topo_max_slope_percentage_1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>maxpendent1</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -1734,7 +1734,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>topo_max_slope_percentage_1</t>
+          <t>topo_altitude_asl</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>maxpendent1</t>
+          <t>altitud</t>
         </is>
       </c>
       <c r="D21" t="b">
@@ -1802,7 +1802,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>topo_altitude_asl</t>
+          <t>topo_fdm_slope_degrees</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>altitud</t>
+          <t>pendentgraus</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -1870,7 +1870,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>topo_fdm_slope_degrees</t>
+          <t>topo_fdm_slope_percentage</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>pendentgraus</t>
+          <t>pendentpercent</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -1938,7 +1938,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>topo_fdm_slope_percentage</t>
+          <t>topo_fdm_aspect_degrees</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>pendentpercent</t>
+          <t>orientacio</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -2006,17 +2006,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>topo_fdm_aspect_degrees</t>
+          <t>topo_fdm_aspect_cardinal_8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>orientacio</t>
+          <t>orientacio_8</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -2074,7 +2074,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>topo_fdm_aspect_cardinal_8</t>
+          <t>topo_fdm_aspect_cardinal_4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>orientacio_8</t>
+          <t>orientacio_4</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -2142,17 +2142,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>topo_fdm_aspect_cardinal_4</t>
+          <t>topo_fdm_curvature</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>orientacio_4</t>
+          <t>curvatura</t>
         </is>
       </c>
       <c r="D27" t="b">
@@ -2210,17 +2210,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>topo_fdm_curvature</t>
+          <t>feat_forest_name</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>curvatura</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -2278,7 +2278,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>feat_forest_id</t>
+          <t>feat_ownership_type</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>fo_codi</t>
+          <t>tip_prop</t>
         </is>
       </c>
       <c r="D29" t="b">
@@ -2346,7 +2346,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>feat_forest_name</t>
+          <t>feat_ownership_regime</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -2414,7 +2414,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>feat_ownership_type</t>
+          <t>feat_cup</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tip_prop</t>
+          <t>cup</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -2482,17 +2482,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>feat_ownership_regime</t>
+          <t>feat_elen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>elen</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -2550,7 +2550,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>feat_cup</t>
+          <t>feat_owner</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>cup</t>
+          <t>titular</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -2618,7 +2618,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>feat_elen</t>
+          <t>feat_agreement</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>elen</t>
+          <t>conveni</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -2686,17 +2686,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>feat_owner</t>
+          <t>feat_management</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>logical</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>titular</t>
+          <t>ordenacio</t>
         </is>
       </c>
       <c r="D35" t="b">
@@ -2754,7 +2754,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>feat_agreement</t>
+          <t>feat_certificate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>conveni</t>
+          <t>certific</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -2822,17 +2822,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>feat_management</t>
+          <t>feat_soil_use</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ordenacio</t>
+          <t>ussol</t>
         </is>
       </c>
       <c r="D37" t="b">
@@ -2890,17 +2890,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>feat_certificate</t>
+          <t>feat_spatial_distribution</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>logical</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>certific</t>
+          <t>distribucioespacial</t>
         </is>
       </c>
       <c r="D38" t="b">
@@ -2958,7 +2958,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>feat_soil_use</t>
+          <t>feat_specific_composition</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ussol</t>
+          <t>composicioespecifica</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -3026,7 +3026,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>feat_canopy_cover_level_2</t>
+          <t>feat_soil_texture</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>classecobertura</t>
+          <t>texturasol</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -3094,17 +3094,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>feat_total_canopy_cover</t>
+          <t>feat_canopy_type</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>fcctotal</t>
+          <t>tipuscoberta</t>
         </is>
       </c>
       <c r="D41" t="b">
@@ -3162,7 +3162,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>feat_spatial_distribution</t>
+          <t>feat_rocky</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>distribucioespacial</t>
+          <t>rocositat</t>
         </is>
       </c>
       <c r="D42" t="b">
@@ -3230,7 +3230,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>feat_specific_composition</t>
+          <t>feat_soil_type_1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>composicioespecifica</t>
+          <t>tipussol1</t>
         </is>
       </c>
       <c r="D43" t="b">
@@ -3298,7 +3298,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>feat_soil_texture</t>
+          <t>feat_soil_type_2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>texturasol</t>
+          <t>tipussol2</t>
         </is>
       </c>
       <c r="D44" t="b">
@@ -3366,7 +3366,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>feat_erosion</t>
+          <t>feat_combustion_model</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>erosio</t>
+          <t>modelcombustible</t>
         </is>
       </c>
       <c r="D45" t="b">
@@ -3434,7 +3434,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>feat_cutoff_stock_type</t>
+          <t>feat_access_easiness</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>talladaregeneracio</t>
+          <t>acces</t>
         </is>
       </c>
       <c r="D46" t="b">
@@ -3502,17 +3502,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>feat_stand_improvement_1</t>
+          <t>clim_prec_year</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>tractamentmillora1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D47" t="b">
@@ -3570,17 +3570,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>feat_stand_improvement_2</t>
+          <t>clim_prec_jan</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>tractamentmillora2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D48" t="b">
@@ -3638,17 +3638,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>feat_soil_improvement_1</t>
+          <t>clim_prec_feb</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tractamentmillorasol1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D49" t="b">
@@ -3706,17 +3706,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>feat_soil_improvement_2</t>
+          <t>clim_prec_mar</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>tractamentmillorasol2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D50" t="b">
@@ -3774,17 +3774,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>feat_sampling_start_date</t>
+          <t>clim_prec_apr</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>POSIXct</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>datainici</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D51" t="b">
@@ -3842,17 +3842,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>feat_canopy_type</t>
+          <t>clim_prec_may</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>tipuscoberta</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D52" t="b">
@@ -3910,17 +3910,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>feat_plot_type</t>
+          <t>clim_prec_jun</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>tipusparcela</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D53" t="b">
@@ -3978,17 +3978,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>feat_level_2</t>
+          <t>clim_prec_jul</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>nivell2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D54" t="b">
@@ -4046,17 +4046,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>feat_forest_cover</t>
+          <t>clim_prec_aug</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>coberturabosc</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D55" t="b">
@@ -4114,17 +4114,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>feat_tree_canopy_cover</t>
+          <t>clim_prec_sep</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>fccarbrada</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D56" t="b">
@@ -4182,17 +4182,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>feat_rocky</t>
+          <t>clim_prec_oct</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>rocositat</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D57" t="b">
@@ -4250,17 +4250,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>feat_org_matter_content</t>
+          <t>clim_prec_nov</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>contingutmo</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D58" t="b">
@@ -4318,17 +4318,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>feat_soil_ph_class</t>
+          <t>clim_prec_dec</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>phsol</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D59" t="b">
@@ -4386,17 +4386,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>feat_soil_ph_value</t>
+          <t>clim_rad_year</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>valorphsol</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D60" t="b">
@@ -4454,17 +4454,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>feat_soil_type_1</t>
+          <t>clim_rad_jan</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>tipussol1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D61" t="b">
@@ -4522,17 +4522,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>feat_soil_type_2</t>
+          <t>clim_rad_feb</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>tipussol2</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D62" t="b">
@@ -4590,17 +4590,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>feat_soil_surface_ph</t>
+          <t>clim_rad_mar</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>phsolsuperficie</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D63" t="b">
@@ -4658,17 +4658,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>feat_combustion_model</t>
+          <t>clim_rad_apr</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>modelcombustible</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D64" t="b">
@@ -4726,17 +4726,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>feat_org_matter_thickness</t>
+          <t>clim_rad_may</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>gruixmo</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D65" t="b">
@@ -4794,17 +4794,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>feat_pinpoint_easiness</t>
+          <t>clim_rad_jun</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>localizacio</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D66" t="b">
@@ -4862,17 +4862,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>feat_access_easiness</t>
+          <t>clim_rad_jul</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>acces</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D67" t="b">
@@ -4930,17 +4930,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>feat_sampling_easiness</t>
+          <t>clim_rad_aug</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>mostreig</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D68" t="b">
@@ -4998,7 +4998,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>feat_sampling_start_time</t>
+          <t>clim_rad_sep</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>horainici</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D69" t="b">
@@ -5066,17 +5066,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>feat_observations</t>
+          <t>clim_rad_oct</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>observacions</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D70" t="b">
@@ -5134,17 +5134,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>feat_forest_type</t>
+          <t>clim_rad_nov</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>tipusbosc</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D71" t="b">
@@ -5202,7 +5202,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>feat_cutoff_stock</t>
+          <t>clim_rad_dec</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>existenciatallades</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D72" t="b">
@@ -5270,17 +5270,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>feat_sampling_end_date</t>
+          <t>clim_tmin_year</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>POSIXct</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>datafi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D73" t="b">
@@ -5338,17 +5338,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>feat_sampling_end_time</t>
+          <t>clim_tmin_jan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>POSIXct</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>horafi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D74" t="b">
@@ -5406,7 +5406,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>clim_prec_year</t>
+          <t>clim_tmin_feb</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5474,7 +5474,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>clim_prec_jan</t>
+          <t>clim_tmin_mar</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5542,7 +5542,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>clim_prec_feb</t>
+          <t>clim_tmin_apr</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5610,7 +5610,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>clim_prec_mar</t>
+          <t>clim_tmin_may</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5678,7 +5678,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>clim_prec_apr</t>
+          <t>clim_tmin_jun</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5746,7 +5746,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>clim_prec_may</t>
+          <t>clim_tmin_jul</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5814,7 +5814,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>clim_prec_jun</t>
+          <t>clim_tmin_aug</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5882,7 +5882,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>clim_prec_jul</t>
+          <t>clim_tmin_sep</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5950,7 +5950,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>clim_prec_aug</t>
+          <t>clim_tmin_oct</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6018,7 +6018,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>clim_prec_sep</t>
+          <t>clim_tmin_nov</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6086,7 +6086,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>clim_prec_oct</t>
+          <t>clim_tmin_dec</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6154,7 +6154,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>clim_prec_nov</t>
+          <t>clim_tmean_year</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6222,7 +6222,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>clim_prec_dec</t>
+          <t>clim_tmean_jan</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6290,12 +6290,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>clim_rad_year</t>
+          <t>clim_tmean_feb</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6358,12 +6358,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>clim_rad_jan</t>
+          <t>clim_tmean_mar</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6426,12 +6426,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>clim_rad_feb</t>
+          <t>clim_tmean_apr</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6494,12 +6494,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>clim_rad_mar</t>
+          <t>clim_tmean_may</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6562,12 +6562,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>clim_rad_apr</t>
+          <t>clim_tmean_jun</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6630,12 +6630,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>clim_rad_may</t>
+          <t>clim_tmean_jul</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6698,12 +6698,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>clim_rad_jun</t>
+          <t>clim_tmean_aug</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6766,12 +6766,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>clim_rad_jul</t>
+          <t>clim_tmean_sep</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6834,12 +6834,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>clim_rad_aug</t>
+          <t>clim_tmean_oct</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6902,12 +6902,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>clim_rad_sep</t>
+          <t>clim_tmean_nov</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6970,12 +6970,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>clim_rad_oct</t>
+          <t>clim_tmean_dec</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -7038,12 +7038,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>clim_rad_nov</t>
+          <t>clim_tmax_year</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -7106,12 +7106,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>clim_rad_dec</t>
+          <t>clim_tmax_jan</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -7174,7 +7174,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>clim_tmin_year</t>
+          <t>clim_tmax_feb</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7242,7 +7242,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>clim_tmin_jan</t>
+          <t>clim_tmax_mar</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7310,7 +7310,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>clim_tmin_feb</t>
+          <t>clim_tmax_apr</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7378,7 +7378,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>clim_tmin_mar</t>
+          <t>clim_tmax_may</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7446,7 +7446,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>clim_tmin_apr</t>
+          <t>clim_tmax_jun</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7514,7 +7514,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>clim_tmin_may</t>
+          <t>clim_tmax_jul</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7582,7 +7582,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>clim_tmin_jun</t>
+          <t>clim_tmax_aug</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7650,7 +7650,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>clim_tmin_jul</t>
+          <t>clim_tmax_sep</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -7718,7 +7718,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>clim_tmin_aug</t>
+          <t>clim_tmax_oct</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7786,7 +7786,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>clim_tmin_sep</t>
+          <t>clim_tmax_nov</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7854,7 +7854,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>clim_tmin_oct</t>
+          <t>clim_tmax_dec</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -7922,7 +7922,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>clim_tmin_nov</t>
+          <t>clim_npp_p</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7990,7 +7990,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>clim_tmin_dec</t>
+          <t>clim_npp_s</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8058,17 +8058,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>clim_tmean_year</t>
+          <t>old_idparcela</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>idparcela</t>
         </is>
       </c>
       <c r="D114" t="b">
@@ -8126,17 +8126,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>clim_tmean_jan</t>
+          <t>old_idclasse_nfi3</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>idclasse</t>
         </is>
       </c>
       <c r="D115" t="b">
@@ -8194,17 +8194,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>clim_tmean_feb</t>
+          <t>old_idclasse_nfi4</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>idclasse</t>
         </is>
       </c>
       <c r="D116" t="b">
@@ -8262,7 +8262,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>clim_tmean_mar</t>
+          <t>old_utm_x_nfi2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8330,7 +8330,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>clim_tmean_apr</t>
+          <t>old_utm_y_nfi2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8398,7 +8398,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>clim_tmean_may</t>
+          <t>old_utm_x_nfi3</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8466,7 +8466,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>clim_tmean_jun</t>
+          <t>old_utm_y_nfi3</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8534,7 +8534,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>clim_tmean_jul</t>
+          <t>clim_pet_year</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8602,7 +8602,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>clim_tmean_aug</t>
+          <t>clim_pet_jan</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8670,7 +8670,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>clim_tmean_sep</t>
+          <t>clim_pet_feb</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -8738,7 +8738,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>clim_tmean_oct</t>
+          <t>clim_pet_mar</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -8806,7 +8806,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>clim_tmean_nov</t>
+          <t>clim_pet_apr</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -8874,7 +8874,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>clim_tmean_dec</t>
+          <t>clim_pet_may</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -8942,7 +8942,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>clim_tmax_year</t>
+          <t>clim_pet_jun</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9010,7 +9010,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>clim_tmax_jan</t>
+          <t>clim_pet_jul</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9078,7 +9078,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>clim_tmax_feb</t>
+          <t>clim_pet_aug</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9146,7 +9146,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>clim_tmax_mar</t>
+          <t>clim_pet_sep</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9214,7 +9214,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>clim_tmax_apr</t>
+          <t>clim_pet_oct</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9282,7 +9282,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>clim_tmax_may</t>
+          <t>clim_pet_nov</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9350,7 +9350,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>clim_tmax_jun</t>
+          <t>clim_pet_dec</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9418,7 +9418,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>clim_tmax_jul</t>
+          <t>clim_ret_year</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -9486,7 +9486,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>clim_tmax_aug</t>
+          <t>clim_ret_jan</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -9554,7 +9554,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>clim_tmax_sep</t>
+          <t>clim_ret_feb</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -9622,7 +9622,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>clim_tmax_oct</t>
+          <t>clim_ret_mar</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -9690,7 +9690,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>clim_tmax_nov</t>
+          <t>clim_ret_apr</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -9758,7 +9758,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>clim_tmax_dec</t>
+          <t>clim_ret_may</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -9826,7 +9826,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>clim_npp_p</t>
+          <t>clim_ret_jun</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -9894,7 +9894,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>clim_npp_s</t>
+          <t>clim_ret_jul</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -9962,17 +9962,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>old_idparcela</t>
+          <t>clim_ret_aug</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>idparcela</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D142" t="b">
@@ -10030,17 +10030,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>old_idclasse_nfi3</t>
+          <t>clim_ret_sep</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>idclasse</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D143" t="b">
@@ -10098,17 +10098,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>old_idclasse_nfi4</t>
+          <t>clim_ret_oct</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>idclasse</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D144" t="b">
@@ -10166,7 +10166,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>old_utm_x_nfi2</t>
+          <t>clim_ret_nov</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10234,7 +10234,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>old_utm_y_nfi2</t>
+          <t>clim_ret_dec</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -10302,39 +10302,39 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>old_utm_x_nfi3</t>
+          <t>feat_cutoff_stock_type</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>talladaregeneracio</t>
         </is>
       </c>
       <c r="D147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -10370,39 +10370,39 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>old_utm_y_nfi3</t>
+          <t>feat_stand_improvement_1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>tractamentmillora1</t>
         </is>
       </c>
       <c r="D148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -10438,39 +10438,39 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>clim_pet_year</t>
+          <t>feat_stand_improvement_2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>tractamentmillora2</t>
         </is>
       </c>
       <c r="D149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -10506,39 +10506,39 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>clim_pet_jan</t>
+          <t>feat_soil_improvement_1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>tractamentmillorasol1</t>
         </is>
       </c>
       <c r="D150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -10574,39 +10574,39 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>clim_pet_feb</t>
+          <t>feat_soil_improvement_2</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>tractamentmillorasol2</t>
         </is>
       </c>
       <c r="D151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -10642,39 +10642,39 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>clim_pet_mar</t>
+          <t>feat_erosion</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>erosio</t>
         </is>
       </c>
       <c r="D152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -10710,39 +10710,39 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>clim_pet_apr</t>
+          <t>feat_sampling_start_date</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>datainici</t>
         </is>
       </c>
       <c r="D153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -10778,39 +10778,39 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>clim_pet_may</t>
+          <t>feat_total_canopy_cover</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>fcctotal</t>
         </is>
       </c>
       <c r="D154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>clim_pet_jun</t>
+          <t>feat_sampling_year</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -10860,25 +10860,25 @@
         </is>
       </c>
       <c r="D155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -10914,39 +10914,39 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>clim_pet_jul</t>
+          <t>feat_forest_cover</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>coberturabosc</t>
         </is>
       </c>
       <c r="D156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -10982,39 +10982,39 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>clim_pet_aug</t>
+          <t>feat_forest_type_lvl_2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>nivell2</t>
         </is>
       </c>
       <c r="D157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -11050,39 +11050,39 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>clim_pet_sep</t>
+          <t>feat_forest_type_lvl3</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>tipusbosc</t>
         </is>
       </c>
       <c r="D158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -11118,39 +11118,39 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>clim_pet_oct</t>
+          <t>feat_observations</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>observacions</t>
         </is>
       </c>
       <c r="D159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -11186,39 +11186,39 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>clim_pet_nov</t>
+          <t>feat_org_matter_thickness</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>gruixmo</t>
         </is>
       </c>
       <c r="D160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -11254,39 +11254,39 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>clim_pet_dec</t>
+          <t>feat_plot_type</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>tipusparcela</t>
         </is>
       </c>
       <c r="D161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -11322,39 +11322,39 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>clim_ret_year</t>
+          <t>feat_sampling_easiness</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>mostreig</t>
         </is>
       </c>
       <c r="D162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -11390,39 +11390,39 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>clim_ret_jan</t>
+          <t>feat_sampling_start_time</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>horainici</t>
         </is>
       </c>
       <c r="D163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -11458,39 +11458,39 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>clim_ret_feb</t>
+          <t>feat_pinpoint_easiness</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>localizacio</t>
         </is>
       </c>
       <c r="D164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -11526,39 +11526,39 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>clim_ret_mar</t>
+          <t>feat_tree_canopy_cover</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>fccarbrada</t>
         </is>
       </c>
       <c r="D165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -11594,39 +11594,39 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>clim_ret_apr</t>
+          <t>feat_cutoff_stock</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>existenciatallades</t>
         </is>
       </c>
       <c r="D166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -11662,39 +11662,39 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>clim_ret_may</t>
+          <t>feat_sampling_end_date</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>datafi</t>
         </is>
       </c>
       <c r="D167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -11730,39 +11730,39 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>clim_ret_jun</t>
+          <t>feat_sampling_start_time</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>horainici</t>
         </is>
       </c>
       <c r="D168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -11798,39 +11798,39 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>clim_ret_jul</t>
+          <t>feat_sampling_end_time</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>POSIXct</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>horafi</t>
         </is>
       </c>
       <c r="D169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -11866,7 +11866,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>clim_ret_aug</t>
+          <t>basal_area</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -11876,7 +11876,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ab</t>
         </is>
       </c>
       <c r="D170" t="b">
@@ -11934,7 +11934,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>clim_ret_sep</t>
+          <t>basal_area_dead</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>abmorts</t>
         </is>
       </c>
       <c r="D171" t="b">
@@ -12002,17 +12002,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>clim_ret_oct</t>
+          <t>basal_area_dec_dominant</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>caducesclerconifab</t>
         </is>
       </c>
       <c r="D172" t="b">
@@ -12028,13 +12028,13 @@
         <v>1</v>
       </c>
       <c r="H172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="b">
         <v>1</v>
       </c>
       <c r="J172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -12070,17 +12070,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>clim_ret_nov</t>
+          <t>density_dec_dominant</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>caducesclerconifdens</t>
         </is>
       </c>
       <c r="D173" t="b">
@@ -12096,13 +12096,13 @@
         <v>1</v>
       </c>
       <c r="H173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="b">
         <v>1</v>
       </c>
       <c r="J173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>clim_ret_dec</t>
+          <t>dbh</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -12148,7 +12148,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>dbh</t>
         </is>
       </c>
       <c r="D174" t="b">
@@ -12206,7 +12206,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>basal_area</t>
+          <t>dbh_dead</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>dbhmorts</t>
         </is>
       </c>
       <c r="D175" t="b">
@@ -12274,7 +12274,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>basal_area_dead</t>
+          <t>density</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -12284,7 +12284,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>abmorts</t>
+          <t>densitat</t>
         </is>
       </c>
       <c r="D176" t="b">
@@ -12342,17 +12342,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>basal_area_dec_dominant</t>
+          <t>density_dead</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>caducesclerconifab</t>
+          <t>densitatmorts</t>
         </is>
       </c>
       <c r="D177" t="b">
@@ -12368,13 +12368,13 @@
         <v>1</v>
       </c>
       <c r="H177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="b">
         <v>1</v>
       </c>
       <c r="J177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>density_dec_dominant</t>
+          <t>basal_area_species_dominant</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>caducesclerconifdens</t>
+          <t>especieab</t>
         </is>
       </c>
       <c r="D178" t="b">
@@ -12478,17 +12478,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>dbh</t>
+          <t>density_species_dominant</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>dbh</t>
+          <t>especiedens</t>
         </is>
       </c>
       <c r="D179" t="b">
@@ -12504,13 +12504,13 @@
         <v>1</v>
       </c>
       <c r="H179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="b">
         <v>1</v>
       </c>
       <c r="J179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -12546,17 +12546,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>dbh_dead</t>
+          <t>basal_area_simp_species_dominant</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>dbhmorts</t>
+          <t>especiesimpleab</t>
         </is>
       </c>
       <c r="D180" t="b">
@@ -12566,19 +12566,19 @@
         <v>1</v>
       </c>
       <c r="F180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="b">
         <v>1</v>
       </c>
       <c r="J180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -12614,17 +12614,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>density</t>
+          <t>density_simp_species_dominant</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>densitat</t>
+          <t>especiesimpledens</t>
         </is>
       </c>
       <c r="D181" t="b">
@@ -12634,19 +12634,19 @@
         <v>1</v>
       </c>
       <c r="F181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="b">
         <v>1</v>
       </c>
       <c r="J181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -12682,17 +12682,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>density_dead</t>
+          <t>basal_area_genus_dominant</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>densitatmorts</t>
+          <t>genereab</t>
         </is>
       </c>
       <c r="D182" t="b">
@@ -12708,13 +12708,13 @@
         <v>1</v>
       </c>
       <c r="H182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="b">
         <v>1</v>
       </c>
       <c r="J182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>basal_area_species_dominant</t>
+          <t>density_genus_dominant</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>especieab</t>
+          <t>generedens</t>
         </is>
       </c>
       <c r="D183" t="b">
@@ -12818,17 +12818,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>density_species_dominant</t>
+          <t>basal_area_dec_percentage</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>especiedens</t>
+          <t>percabcaducesclerconif</t>
         </is>
       </c>
       <c r="D184" t="b">
@@ -12886,17 +12886,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>basal_area_simp_species_dominant</t>
+          <t>basal_area_species_percentage</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>especiesimpleab</t>
+          <t>percabespecie</t>
         </is>
       </c>
       <c r="D185" t="b">
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
@@ -12954,17 +12954,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>density_simp_species_dominant</t>
+          <t>basal_area_simp_species_percentage</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>especiesimpledens</t>
+          <t>percabespeciesimple</t>
         </is>
       </c>
       <c r="D186" t="b">
@@ -13022,17 +13022,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>basal_area_genus_dominant</t>
+          <t>basal_area_genus_percentage</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>genereab</t>
+          <t>percabgenere</t>
         </is>
       </c>
       <c r="D187" t="b">
@@ -13090,17 +13090,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>density_genus_dominant</t>
+          <t>basal_area_bc_percentage</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>generedens</t>
+          <t>percabplanifconif</t>
         </is>
       </c>
       <c r="D188" t="b">
@@ -13158,7 +13158,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>over_bark_volume_increment</t>
+          <t>density_dec_percentage</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>iavc</t>
+          <t>percdenscaducesclerconif</t>
         </is>
       </c>
       <c r="D189" t="b">
@@ -13178,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
@@ -13226,7 +13226,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>basal_area_dec_percentage</t>
+          <t>density_species_percentage</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>percabcaducesclerconif</t>
+          <t>percdensespecie</t>
         </is>
       </c>
       <c r="D190" t="b">
@@ -13294,7 +13294,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>basal_area_species_percentage</t>
+          <t>density_simp_species_percentage</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -13304,7 +13304,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>percabespecie</t>
+          <t>percdensespeciesimple</t>
         </is>
       </c>
       <c r="D191" t="b">
@@ -13314,7 +13314,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
@@ -13362,7 +13362,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>basal_area_simp_species_percentage</t>
+          <t>density_genus_percentage</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -13372,7 +13372,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>percabespeciesimple</t>
+          <t>percdensgenere</t>
         </is>
       </c>
       <c r="D192" t="b">
@@ -13382,7 +13382,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
@@ -13430,7 +13430,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>basal_area_genus_percentage</t>
+          <t>density_bc_percentage</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -13440,7 +13440,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>percabgenere</t>
+          <t>percdensplanifconif</t>
         </is>
       </c>
       <c r="D193" t="b">
@@ -13498,17 +13498,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>basal_area_bc_percentage</t>
+          <t>basal_area_bc_dominant</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>percabplanifconif</t>
+          <t>planifconifab</t>
         </is>
       </c>
       <c r="D194" t="b">
@@ -13566,17 +13566,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>density_dec_percentage</t>
+          <t>density_bc_dominant</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>percdenscaducesclerconif</t>
+          <t>planifconifdens</t>
         </is>
       </c>
       <c r="D195" t="b">
@@ -13634,7 +13634,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>density_species_percentage</t>
+          <t>canopy_cover</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -13644,7 +13644,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>percdensespecie</t>
+          <t>rc</t>
         </is>
       </c>
       <c r="D196" t="b">
@@ -13660,13 +13660,13 @@
         <v>1</v>
       </c>
       <c r="H196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="b">
         <v>1</v>
       </c>
       <c r="J196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>density_simp_species_percentage</t>
+          <t>over_bark_volume</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -13712,7 +13712,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>percdensespeciesimple</t>
+          <t>vcc</t>
         </is>
       </c>
       <c r="D197" t="b">
@@ -13722,19 +13722,19 @@
         <v>1</v>
       </c>
       <c r="F197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="b">
         <v>1</v>
       </c>
       <c r="J197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>density_genus_percentage</t>
+          <t>over_bark_volume_dead</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>percdensgenere</t>
+          <t>vccmorts</t>
         </is>
       </c>
       <c r="D198" t="b">
@@ -13796,13 +13796,13 @@
         <v>1</v>
       </c>
       <c r="H198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
       </c>
       <c r="J198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>density_bc_percentage</t>
+          <t>under_bark_volume</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>percdensplanifconif</t>
+          <t>vsc</t>
         </is>
       </c>
       <c r="D199" t="b">
@@ -13864,13 +13864,13 @@
         <v>1</v>
       </c>
       <c r="H199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="b">
         <v>1</v>
       </c>
       <c r="J199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -13906,17 +13906,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>basal_area_bc_dominant</t>
+          <t>under_bark_volume_dead</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>planifconifab</t>
+          <t>vscmorts</t>
         </is>
       </c>
       <c r="D200" t="b">
@@ -13932,13 +13932,13 @@
         <v>1</v>
       </c>
       <c r="H200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="b">
         <v>1</v>
       </c>
       <c r="J200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>density_bc_dominant</t>
+          <t>diamclass_id</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -13984,7 +13984,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>planifconifdens</t>
+          <t>idcd</t>
         </is>
       </c>
       <c r="D201" t="b">
@@ -14000,13 +14000,13 @@
         <v>1</v>
       </c>
       <c r="H201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="b">
         <v>1</v>
       </c>
       <c r="J201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>canopy_cover</t>
+          <t>aerial_biomass_total</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -14052,11 +14052,11 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>rc</t>
+          <t>bat</t>
         </is>
       </c>
       <c r="D202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202" t="b">
         <v>1</v>
@@ -14110,7 +14110,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>over_bark_volume</t>
+          <t>trunk_bark_biomass</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -14120,11 +14120,11 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>vcc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="D203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" t="b">
         <v>1</v>
@@ -14178,7 +14178,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>over_bark_volume_dead</t>
+          <t>leaf_biomass</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -14188,11 +14188,11 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>vccmorts</t>
+          <t>bh</t>
         </is>
       </c>
       <c r="D204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="b">
         <v>1</v>
@@ -14246,7 +14246,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>fulewood_volume</t>
+          <t>trunk_wood_biomass</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -14256,29 +14256,29 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>vle</t>
+          <t>bm</t>
         </is>
       </c>
       <c r="D205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="b">
         <v>1</v>
       </c>
       <c r="J205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>under_bark_volume</t>
+          <t>branch_wo_leaves_biomass</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -14324,11 +14324,11 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>vsc</t>
+          <t>br</t>
         </is>
       </c>
       <c r="D206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
@@ -14382,7 +14382,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>under_bark_volume_dead</t>
+          <t>aerial_carbon_total</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -14392,11 +14392,11 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>vscmorts</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="D207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="b">
         <v>1</v>
@@ -14450,21 +14450,21 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>diamclass_id</t>
+          <t>trunk_bark_carbon</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>character</t>
+          <t>numeric</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>idcd</t>
+          <t>cc</t>
         </is>
       </c>
       <c r="D208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208" t="b">
         <v>1</v>
@@ -14518,7 +14518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>what_the_hell_is_this</t>
+          <t>accumulated_aerial_co2</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -14528,17 +14528,17 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>cca</t>
         </is>
       </c>
       <c r="D209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
@@ -14586,7 +14586,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>what_the_hell_is_this_dead</t>
+          <t>leaf_carbon</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -14596,17 +14596,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>ch</t>
         </is>
       </c>
       <c r="D210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
@@ -14654,7 +14654,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>aerial_biomass_total</t>
+          <t>trunk_wood_carbon</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>bat</t>
+          <t>cm</t>
         </is>
       </c>
       <c r="D211" t="b">
@@ -14722,7 +14722,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>trunk_bark_biomass</t>
+          <t>branch_wo_leaves_carbon</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>cr</t>
         </is>
       </c>
       <c r="D212" t="b">
@@ -14790,7 +14790,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>leaf_biomass</t>
+          <t>lai</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>bh</t>
+          <t>iaf</t>
         </is>
       </c>
       <c r="D213" t="b">
@@ -14816,13 +14816,13 @@
         <v>1</v>
       </c>
       <c r="H213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="b">
         <v>1</v>
       </c>
       <c r="J213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -14858,24 +14858,24 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>trunk_wood_biomass</t>
+          <t>basal_area_forest_type</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>bm</t>
+          <t>tipusboscab</t>
         </is>
       </c>
       <c r="D214" t="b">
         <v>0</v>
       </c>
       <c r="E214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" t="b">
         <v>1</v>
@@ -14884,13 +14884,13 @@
         <v>1</v>
       </c>
       <c r="H214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="b">
         <v>1</v>
       </c>
       <c r="J214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -14926,24 +14926,24 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>branch_wo_leaves_biomass</t>
+          <t>density_forest_type</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>br</t>
+          <t>tipusboscdens</t>
         </is>
       </c>
       <c r="D215" t="b">
         <v>0</v>
       </c>
       <c r="E215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="b">
         <v>1</v>
@@ -14952,13 +14952,13 @@
         <v>1</v>
       </c>
       <c r="H215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="b">
         <v>1</v>
       </c>
       <c r="J215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -14994,21 +14994,21 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>aerial_carbon_total</t>
+          <t>species_id</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>idespecie</t>
         </is>
       </c>
       <c r="D216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="b">
         <v>1</v>
@@ -15017,13 +15017,13 @@
         <v>1</v>
       </c>
       <c r="G216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="b">
         <v>1</v>
       </c>
       <c r="I216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="b">
         <v>1</v>
@@ -15062,7 +15062,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>trunk_bark_carbon</t>
+          <t>order_basal_area</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -15072,11 +15072,11 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>cc</t>
+          <t>ordreab</t>
         </is>
       </c>
       <c r="D217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="b">
         <v>1</v>
@@ -15085,13 +15085,13 @@
         <v>1</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="b">
         <v>1</v>
       </c>
       <c r="I217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="b">
         <v>1</v>
@@ -15130,7 +15130,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>accumulated_aerial_co2</t>
+          <t>order_density</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -15140,11 +15140,11 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>cca</t>
+          <t>ordredens</t>
         </is>
       </c>
       <c r="D218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="b">
         <v>1</v>
@@ -15153,13 +15153,13 @@
         <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="b">
         <v>1</v>
       </c>
       <c r="I218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="b">
         <v>1</v>
@@ -15198,7 +15198,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>leaf_carbon</t>
+          <t>basal_area_percentage</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -15208,11 +15208,11 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>ch</t>
+          <t>percab</t>
         </is>
       </c>
       <c r="D219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" t="b">
         <v>1</v>
@@ -15221,13 +15221,13 @@
         <v>1</v>
       </c>
       <c r="G219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219" t="b">
         <v>1</v>
       </c>
       <c r="I219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="b">
         <v>1</v>
@@ -15266,7 +15266,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>trunk_wood_carbon</t>
+          <t>density_percentage</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -15276,11 +15276,11 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>cm</t>
+          <t>percdens</t>
         </is>
       </c>
       <c r="D220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E220" t="b">
         <v>1</v>
@@ -15289,13 +15289,13 @@
         <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220" t="b">
         <v>1</v>
       </c>
       <c r="I220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="b">
         <v>1</v>
@@ -15334,21 +15334,21 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>branch_wo_leaves_carbon</t>
+          <t>simpspecies_id</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>cr</t>
+          <t>idespeciesimple</t>
         </is>
       </c>
       <c r="D221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="b">
         <v>1</v>
@@ -15357,13 +15357,13 @@
         <v>1</v>
       </c>
       <c r="G221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" t="b">
         <v>1</v>
       </c>
       <c r="I221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="b">
         <v>1</v>
@@ -15402,21 +15402,21 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>lai</t>
+          <t>genus_id</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>iaf</t>
+          <t>idgenere</t>
         </is>
       </c>
       <c r="D222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="b">
         <v>1</v>
@@ -15425,16 +15425,16 @@
         <v>1</v>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -15470,39 +15470,39 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>over_bark_volume_increment_creaf</t>
+          <t>bc_id</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>iavc_creaf</t>
+          <t>idplanifconif</t>
         </is>
       </c>
       <c r="D223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223" t="b">
         <v>1</v>
       </c>
       <c r="F223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -15538,39 +15538,39 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>gross_leaf_production</t>
+          <t>dec_id</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>character</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>ph</t>
+          <t>idcadesccon</t>
         </is>
       </c>
       <c r="D224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224" t="b">
         <v>1</v>
       </c>
       <c r="F224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -15598,754 +15598,6 @@
         </is>
       </c>
       <c r="P224" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>basal_area_forest_type</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>tipusboscab</t>
-        </is>
-      </c>
-      <c r="D225" t="b">
-        <v>0</v>
-      </c>
-      <c r="E225" t="b">
-        <v>0</v>
-      </c>
-      <c r="F225" t="b">
-        <v>1</v>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="b">
-        <v>0</v>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="b">
-        <v>0</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P225" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>density_forest_type</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>tipusboscdens</t>
-        </is>
-      </c>
-      <c r="D226" t="b">
-        <v>0</v>
-      </c>
-      <c r="E226" t="b">
-        <v>0</v>
-      </c>
-      <c r="F226" t="b">
-        <v>1</v>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="b">
-        <v>0</v>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="b">
-        <v>0</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>species_id</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>idespecie</t>
-        </is>
-      </c>
-      <c r="D227" t="b">
-        <v>1</v>
-      </c>
-      <c r="E227" t="b">
-        <v>1</v>
-      </c>
-      <c r="F227" t="b">
-        <v>1</v>
-      </c>
-      <c r="G227" t="b">
-        <v>0</v>
-      </c>
-      <c r="H227" t="b">
-        <v>1</v>
-      </c>
-      <c r="I227" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" t="b">
-        <v>1</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>order_basal_area</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>ordreab</t>
-        </is>
-      </c>
-      <c r="D228" t="b">
-        <v>1</v>
-      </c>
-      <c r="E228" t="b">
-        <v>1</v>
-      </c>
-      <c r="F228" t="b">
-        <v>1</v>
-      </c>
-      <c r="G228" t="b">
-        <v>0</v>
-      </c>
-      <c r="H228" t="b">
-        <v>1</v>
-      </c>
-      <c r="I228" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" t="b">
-        <v>1</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>order_density</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>ordredens</t>
-        </is>
-      </c>
-      <c r="D229" t="b">
-        <v>1</v>
-      </c>
-      <c r="E229" t="b">
-        <v>1</v>
-      </c>
-      <c r="F229" t="b">
-        <v>1</v>
-      </c>
-      <c r="G229" t="b">
-        <v>0</v>
-      </c>
-      <c r="H229" t="b">
-        <v>1</v>
-      </c>
-      <c r="I229" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" t="b">
-        <v>1</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M229" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P229" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>basal_area_percentage</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>percab</t>
-        </is>
-      </c>
-      <c r="D230" t="b">
-        <v>1</v>
-      </c>
-      <c r="E230" t="b">
-        <v>1</v>
-      </c>
-      <c r="F230" t="b">
-        <v>1</v>
-      </c>
-      <c r="G230" t="b">
-        <v>0</v>
-      </c>
-      <c r="H230" t="b">
-        <v>1</v>
-      </c>
-      <c r="I230" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" t="b">
-        <v>1</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P230" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>density_percentage</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>percdens</t>
-        </is>
-      </c>
-      <c r="D231" t="b">
-        <v>1</v>
-      </c>
-      <c r="E231" t="b">
-        <v>1</v>
-      </c>
-      <c r="F231" t="b">
-        <v>1</v>
-      </c>
-      <c r="G231" t="b">
-        <v>0</v>
-      </c>
-      <c r="H231" t="b">
-        <v>1</v>
-      </c>
-      <c r="I231" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" t="b">
-        <v>1</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>simpspecies_id</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>idespeciesimple</t>
-        </is>
-      </c>
-      <c r="D232" t="b">
-        <v>1</v>
-      </c>
-      <c r="E232" t="b">
-        <v>1</v>
-      </c>
-      <c r="F232" t="b">
-        <v>1</v>
-      </c>
-      <c r="G232" t="b">
-        <v>0</v>
-      </c>
-      <c r="H232" t="b">
-        <v>1</v>
-      </c>
-      <c r="I232" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" t="b">
-        <v>1</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>genus_id</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>idgenere</t>
-        </is>
-      </c>
-      <c r="D233" t="b">
-        <v>1</v>
-      </c>
-      <c r="E233" t="b">
-        <v>1</v>
-      </c>
-      <c r="F233" t="b">
-        <v>1</v>
-      </c>
-      <c r="G233" t="b">
-        <v>0</v>
-      </c>
-      <c r="H233" t="b">
-        <v>1</v>
-      </c>
-      <c r="I233" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" t="b">
-        <v>1</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P233" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>bc_id</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>idplanifconif</t>
-        </is>
-      </c>
-      <c r="D234" t="b">
-        <v>1</v>
-      </c>
-      <c r="E234" t="b">
-        <v>1</v>
-      </c>
-      <c r="F234" t="b">
-        <v>1</v>
-      </c>
-      <c r="G234" t="b">
-        <v>0</v>
-      </c>
-      <c r="H234" t="b">
-        <v>1</v>
-      </c>
-      <c r="I234" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" t="b">
-        <v>1</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P234" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>dec_id</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>character</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>idcadesccon</t>
-        </is>
-      </c>
-      <c r="D235" t="b">
-        <v>1</v>
-      </c>
-      <c r="E235" t="b">
-        <v>1</v>
-      </c>
-      <c r="F235" t="b">
-        <v>1</v>
-      </c>
-      <c r="G235" t="b">
-        <v>0</v>
-      </c>
-      <c r="H235" t="b">
-        <v>1</v>
-      </c>
-      <c r="I235" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" t="b">
-        <v>1</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O235" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P235" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
